--- a/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_Unif_beta_versionB_Abs_deltax_22-Dec-2023.xlsx
+++ b/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_Unif_beta_versionB_Abs_deltax_22-Dec-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04E6E8E-9AD4-4D26-B195-35A6A0AD1C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31B94A10-A8B4-45BD-B4B4-454212A92D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{6672212C-C164-434F-B50B-555AFE76ECC7}"/>
   </bookViews>
@@ -38,9 +38,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Var1</t>
+    <t>Var1_1</t>
+  </si>
+  <si>
+    <t>Var1_2</t>
+  </si>
+  <si>
+    <t>Var1_3</t>
+  </si>
+  <si>
+    <t>Var1_4</t>
   </si>
 </sst>
 </file>
@@ -393,18 +402,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3FA15F-6DD2-40E1-B350-20B9B1EBEC9F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.99702513414579097</v>
+      </c>
+      <c r="B2">
+        <v>0.49899243203550697</v>
+      </c>
+      <c r="C2">
+        <v>1.0013073123745413</v>
+      </c>
+      <c r="D2">
+        <v>0.49751020815392949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.3487450125342712</v>
+      </c>
+      <c r="B3">
+        <v>0.19375661026604127</v>
+      </c>
+      <c r="C3">
+        <v>0.3225634762965795</v>
+      </c>
+      <c r="D3">
+        <v>0.18711974564388059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.0970251341457917</v>
+      </c>
+      <c r="B4">
+        <v>0.69899243203550632</v>
+      </c>
+      <c r="C4">
+        <v>1.1013073123745429</v>
+      </c>
+      <c r="D4">
+        <v>0.69751020815392994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.34874501253427104</v>
+      </c>
+      <c r="B5">
+        <v>0.19375661026604138</v>
+      </c>
+      <c r="C5">
+        <v>0.32256347629657944</v>
+      </c>
+      <c r="D5">
+        <v>0.18711974564388062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.2470251341457943</v>
+      </c>
+      <c r="B6">
+        <v>0.99899243203550603</v>
+      </c>
+      <c r="C6">
+        <v>1.2513073123745413</v>
+      </c>
+      <c r="D6">
+        <v>0.99751020815392821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.34874501253427109</v>
+      </c>
+      <c r="B7">
+        <v>0.19375661026604132</v>
+      </c>
+      <c r="C7">
+        <v>0.32256347629657944</v>
+      </c>
+      <c r="D7">
+        <v>0.1871197456438807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.3970251341457904</v>
+      </c>
+      <c r="B8">
+        <v>1.2989924320355049</v>
+      </c>
+      <c r="C8">
+        <v>1.4013073123745416</v>
+      </c>
+      <c r="D8">
+        <v>1.2975102081539294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.34874501253427131</v>
+      </c>
+      <c r="B9">
+        <v>0.19375661026604121</v>
+      </c>
+      <c r="C9">
+        <v>0.3225634762965795</v>
+      </c>
+      <c r="D9">
+        <v>0.18711974564388059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.0001567183621951</v>
+      </c>
+      <c r="B10">
+        <v>0.50058783599284373</v>
+      </c>
+      <c r="C10">
+        <v>0.99674639202962412</v>
+      </c>
+      <c r="D10">
+        <v>0.50121059008798829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.15095714063976309</v>
+      </c>
+      <c r="B11">
+        <v>8.8786749384016359E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.13607960761675317</v>
+      </c>
+      <c r="D11">
+        <v>8.7741324908127749E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.1001567183621941</v>
+      </c>
+      <c r="B12">
+        <v>0.70058783599284258</v>
+      </c>
+      <c r="C12">
+        <v>1.0967463920296241</v>
+      </c>
+      <c r="D12">
+        <v>0.70121059008798803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.15095714063976309</v>
+      </c>
+      <c r="B13">
+        <v>8.8786749384016303E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.13607960761675314</v>
+      </c>
+      <c r="D13">
+        <v>8.7741324908127763E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.2501567183621951</v>
+      </c>
+      <c r="B14">
+        <v>1.0005878359928422</v>
+      </c>
+      <c r="C14">
+        <v>1.2467463920296238</v>
+      </c>
+      <c r="D14">
+        <v>1.0012105900879891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.15095714063976298</v>
+      </c>
+      <c r="B15">
+        <v>8.8786749384016275E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.13607960761675317</v>
+      </c>
+      <c r="D15">
+        <v>8.7741324908127777E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.4001567183621932</v>
+      </c>
+      <c r="B16">
+        <v>1.3005878359928431</v>
+      </c>
+      <c r="C16">
+        <v>1.3967463920296261</v>
+      </c>
+      <c r="D16">
+        <v>1.3012105900879885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.15095714063976293</v>
+      </c>
+      <c r="B17">
+        <v>8.8786749384016345E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.13607960761675317</v>
+      </c>
+      <c r="D17">
+        <v>8.7741324908127763E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.99985775667022436</v>
+      </c>
+      <c r="B18">
+        <v>0.50171078286264725</v>
+      </c>
+      <c r="C18">
+        <v>0.99975187771194385</v>
+      </c>
+      <c r="D18">
+        <v>0.50165069442228349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.10715738113226912</v>
+      </c>
+      <c r="B19">
+        <v>6.4497423499402587E-2</v>
+      </c>
+      <c r="C19">
+        <v>9.7321160300022067E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.4523706021676869E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.0998577566702272</v>
+      </c>
+      <c r="B20">
+        <v>0.70171078286264754</v>
+      </c>
+      <c r="C20">
+        <v>1.0997518777119435</v>
+      </c>
+      <c r="D20">
+        <v>0.70165069442228489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.10715738113226925</v>
+      </c>
+      <c r="B21">
+        <v>6.4497423499402656E-2</v>
+      </c>
+      <c r="C21">
+        <v>9.7321160300022039E-2</v>
+      </c>
+      <c r="D21">
+        <v>6.4523706021676855E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.2498577566702251</v>
+      </c>
+      <c r="B22">
+        <v>1.001710782862649</v>
+      </c>
+      <c r="C22">
+        <v>1.2497518777119445</v>
+      </c>
+      <c r="D22">
+        <v>1.0016506944222847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.10715738113226918</v>
+      </c>
+      <c r="B23">
+        <v>6.449742349940267E-2</v>
+      </c>
+      <c r="C23">
+        <v>9.7321160300022053E-2</v>
+      </c>
+      <c r="D23">
+        <v>6.4523706021676841E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.3998577566702279</v>
+      </c>
+      <c r="B24">
+        <v>1.3017107828626509</v>
+      </c>
+      <c r="C24">
+        <v>1.3997518777119449</v>
+      </c>
+      <c r="D24">
+        <v>1.3016506944222852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.10715738113226918</v>
+      </c>
+      <c r="B25">
+        <v>6.4497423499402601E-2</v>
+      </c>
+      <c r="C25">
+        <v>9.7321160300022053E-2</v>
+      </c>
+      <c r="D25">
+        <v>6.4523706021676869E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.0018102004623703</v>
+      </c>
+      <c r="B26">
+        <v>0.5006543429807907</v>
+      </c>
+      <c r="C26">
+        <v>1.000460627219939</v>
+      </c>
+      <c r="D26">
+        <v>0.50067989782077704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5.1493730400781465E-2</v>
+      </c>
+      <c r="B27">
+        <v>3.2177254673953673E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.7035424895080481E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.2187802532799778E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.1018102004623718</v>
+      </c>
+      <c r="B28">
+        <v>0.70065434298078999</v>
+      </c>
+      <c r="C28">
+        <v>1.1004606272199384</v>
+      </c>
+      <c r="D28">
+        <v>0.70067989782077666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5.1493730400781146E-2</v>
+      </c>
+      <c r="B29">
+        <v>3.2177254673953805E-2</v>
+      </c>
+      <c r="C29">
+        <v>4.703542489508046E-2</v>
+      </c>
+      <c r="D29">
+        <v>3.2187802532799813E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.251810200462369</v>
+      </c>
+      <c r="B30">
+        <v>1.0006543429807919</v>
+      </c>
+      <c r="C30">
+        <v>1.2504606272199401</v>
+      </c>
+      <c r="D30">
+        <v>1.0006798978207776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5.1493730400780958E-2</v>
+      </c>
+      <c r="B31">
+        <v>3.2177254673953604E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.703542489508053E-2</v>
+      </c>
+      <c r="D31">
+        <v>3.218780253279982E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.4018102004623705</v>
+      </c>
+      <c r="B32">
+        <v>1.3006543429807906</v>
+      </c>
+      <c r="C32">
+        <v>1.4004606272199385</v>
+      </c>
+      <c r="D32">
+        <v>1.3006798978207785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5.1493730400780952E-2</v>
+      </c>
+      <c r="B33">
+        <v>3.2177254673953749E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.7035424895080523E-2</v>
+      </c>
+      <c r="D33">
+        <v>3.218780253279975E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.000752156638105</v>
+      </c>
+      <c r="B34">
+        <v>0.49923449286632693</v>
+      </c>
+      <c r="C34">
+        <v>1.0006091570469422</v>
+      </c>
+      <c r="D34">
+        <v>0.49922264021252416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3.7513741447333507E-2</v>
+      </c>
+      <c r="B35">
+        <v>2.3391393800083704E-2</v>
+      </c>
+      <c r="C35">
+        <v>3.4532435843642934E-2</v>
+      </c>
+      <c r="D35">
+        <v>2.3390714248771587E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.1007521566381058</v>
+      </c>
+      <c r="B36">
+        <v>0.69923449286632733</v>
+      </c>
+      <c r="C36">
+        <v>1.1006091570469434</v>
+      </c>
+      <c r="D36">
+        <v>0.69922264021252367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3.7513741447333264E-2</v>
+      </c>
+      <c r="B37">
+        <v>2.3391393800083912E-2</v>
+      </c>
+      <c r="C37">
+        <v>3.4532435843643024E-2</v>
+      </c>
+      <c r="D37">
+        <v>2.3390714248771611E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1.2507521566381075</v>
+      </c>
+      <c r="B38">
+        <v>0.99923449286632682</v>
+      </c>
+      <c r="C38">
+        <v>1.250609157046942</v>
+      </c>
+      <c r="D38">
+        <v>0.99922264021252372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3.7513741447332632E-2</v>
+      </c>
+      <c r="B39">
+        <v>2.3391393800083021E-2</v>
+      </c>
+      <c r="C39">
+        <v>3.4532435843643024E-2</v>
+      </c>
+      <c r="D39">
+        <v>2.3390714248771614E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1.4007521566381058</v>
+      </c>
+      <c r="B40">
+        <v>1.2992344928663291</v>
+      </c>
+      <c r="C40">
+        <v>1.4006091570469423</v>
+      </c>
+      <c r="D40">
+        <v>1.2992226402125235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3.7513741447333451E-2</v>
+      </c>
+      <c r="B41">
+        <v>2.3391393800083069E-2</v>
+      </c>
+      <c r="C41">
+        <v>3.4532435843643003E-2</v>
+      </c>
+      <c r="D41">
+        <v>2.3390714248771659E-2</v>
       </c>
     </row>
   </sheetData>
